--- a/experiments/current vs brightness/current vs brightness.xlsx
+++ b/experiments/current vs brightness/current vs brightness.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="16">
   <si>
     <t xml:space="preserve">One neopixel</t>
   </si>
@@ -51,6 +51,12 @@
     <t xml:space="preserve">RGB</t>
   </si>
   <si>
+    <t xml:space="preserve">&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\</t>
+  </si>
+  <si>
     <t xml:space="preserve">180 pixels</t>
   </si>
   <si>
@@ -70,17 +76,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$R-1C09]\ #,##0.00;[RED][$R-1C09]\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -96,23 +102,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -149,7 +138,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,22 +162,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -203,22 +176,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result 3" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2 4" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -328,8 +297,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.492973237199071"/>
-          <c:y val="0.0324780496121388"/>
+          <c:x val="0.492936867806069"/>
+          <c:y val="0.0325407844498438"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -804,11 +773,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="6228622"/>
-        <c:axId val="42537208"/>
+        <c:axId val="10730508"/>
+        <c:axId val="81139842"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6228622"/>
+        <c:axId val="10730508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,14 +813,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42537208"/>
+        <c:crossAx val="81139842"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42537208"/>
+        <c:axId val="81139842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6228622"/>
+        <c:crossAx val="10730508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1170,11 +1139,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63887049"/>
-        <c:axId val="97465985"/>
+        <c:axId val="73317141"/>
+        <c:axId val="33985265"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63887049"/>
+        <c:axId val="73317141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,12 +1189,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97465985"/>
+        <c:crossAx val="33985265"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97465985"/>
+        <c:axId val="33985265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63887049"/>
+        <c:crossAx val="73317141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1490,11 +1459,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1020583"/>
-        <c:axId val="82838532"/>
+        <c:axId val="96177610"/>
+        <c:axId val="60799651"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1020583"/>
+        <c:axId val="96177610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,12 +1509,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82838532"/>
+        <c:crossAx val="60799651"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82838532"/>
+        <c:axId val="60799651"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1560,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020583"/>
+        <c:crossAx val="96177610"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,15 +1593,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:colOff>86040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184680</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1640,8 +1609,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6986160" y="955800"/>
-        <a:ext cx="5890680" cy="4222800"/>
+        <a:off x="7020000" y="3732840"/>
+        <a:ext cx="8256600" cy="4148280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1665,9 +1634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1675,8 +1644,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3687120" y="547560"/>
-        <a:ext cx="4571640" cy="2743200"/>
+        <a:off x="3781080" y="547560"/>
+        <a:ext cx="4704480" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1693,16 +1662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>307800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1710,8 +1679,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4969440" y="1324800"/>
-        <a:ext cx="4572000" cy="2733480"/>
+        <a:off x="7604280" y="10440"/>
+        <a:ext cx="4685760" cy="2733120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1729,19 +1698,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:R17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="B21:K31 I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08372093023256"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.06511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1723,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1735,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
@@ -1783,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
@@ -1802,8 +1774,43 @@
       <c r="G4" s="3" t="n">
         <v>0.003</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="n">
+        <f aca="false">B4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">D4*1000</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">E4*1000</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">F4*1000</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">G4*1000</f>
+        <v>3</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
         <v>10</v>
       </c>
@@ -1822,8 +1829,43 @@
       <c r="G5" s="3" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="n">
+        <f aca="false">B5</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">D5*1000</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">E5*1000</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">F5*1000</f>
+        <v>4</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">G5*1000</f>
+        <v>5</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
         <v>20</v>
       </c>
@@ -1842,8 +1884,43 @@
       <c r="G6" s="3" t="n">
         <v>0.009</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="n">
+        <f aca="false">B6</f>
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">D6*1000</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">E6*1000</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">F6*1000</f>
+        <v>5</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">G6*1000</f>
+        <v>9</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>30</v>
       </c>
@@ -1862,8 +1939,43 @@
       <c r="G7" s="3" t="n">
         <v>0.013</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="n">
+        <f aca="false">B7</f>
+        <v>30</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">D7*1000</f>
+        <v>7</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">E7*1000</f>
+        <v>7</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">F7*1000</f>
+        <v>6</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">G7*1000</f>
+        <v>13</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>40</v>
       </c>
@@ -1882,8 +1994,43 @@
       <c r="G8" s="3" t="n">
         <v>0.017</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="n">
+        <f aca="false">B8</f>
+        <v>40</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">D8*1000</f>
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">E8*1000</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">F8*1000</f>
+        <v>8</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">G8*1000</f>
+        <v>17</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>50</v>
       </c>
@@ -1902,8 +2049,43 @@
       <c r="G9" s="3" t="n">
         <v>0.022</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>50</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">D9*1000</f>
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">E9*1000</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">F9*1000</f>
+        <v>9</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">G9*1000</f>
+        <v>22</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>60</v>
       </c>
@@ -1922,8 +2104,43 @@
       <c r="G10" s="3" t="n">
         <v>0.026</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>60</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">D10*1000</f>
+        <v>11</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">E10*1000</f>
+        <v>11</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">F10*1000</f>
+        <v>11</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">G10*1000</f>
+        <v>26</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>70</v>
       </c>
@@ -1942,8 +2159,43 @@
       <c r="G11" s="3" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>70</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">D11*1000</f>
+        <v>13</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">E11*1000</f>
+        <v>12</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">F11*1000</f>
+        <v>12</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">G11*1000</f>
+        <v>30</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <v>80</v>
       </c>
@@ -1962,8 +2214,43 @@
       <c r="G12" s="3" t="n">
         <v>0.034</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>80</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">D12*1000</f>
+        <v>14</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">E12*1000</f>
+        <v>14</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">F12*1000</f>
+        <v>13</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">G12*1000</f>
+        <v>34</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <v>90</v>
       </c>
@@ -1982,8 +2269,43 @@
       <c r="G13" s="3" t="n">
         <v>0.038</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>90</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">D13*1000</f>
+        <v>15</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">E13*1000</f>
+        <v>15</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">F13*1000</f>
+        <v>15</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">G13*1000</f>
+        <v>38</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
         <v>100</v>
       </c>
@@ -2002,10 +2324,45 @@
       <c r="G14" s="3" t="n">
         <v>0.042</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">D14*1000</f>
+        <v>17</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">E14*1000</f>
+        <v>17</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">F14*1000</f>
+        <v>16</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">G14*1000</f>
+        <v>42</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">(D14-D4)*180+D4</f>
@@ -2046,17 +2403,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B6:C18"/>
+  <dimension ref="B6:E27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="B21:K31 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2423,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,6 +2515,134 @@
       </c>
       <c r="C18" s="0" t="n">
         <v>0.106</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <f aca="false">B8</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">C8*1000</f>
+        <v>89</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">C9*1000</f>
+        <v>89</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">C10*1000</f>
+        <v>90</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>50</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">C11*1000</f>
+        <v>92</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>90</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">C12*1000</f>
+        <v>95</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>120</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">C13*1000</f>
+        <v>97</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>150</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">C14*1000</f>
+        <v>99</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <f aca="false">B15</f>
+        <v>180</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">C15*1000</f>
+        <v>101</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2177,20 +2662,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F16"/>
+  <dimension ref="B4:K31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2202,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,6 +2886,413 @@
       <c r="F16" s="3" t="n">
         <f aca="false">AVERAGE(C16:E16)</f>
         <v>6.94</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <f aca="false">B6</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C6</f>
+        <v>0.12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <f aca="false">D6</f>
+        <v>0.12</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <f aca="false">E6</f>
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <f aca="false">F6</f>
+        <v>0.12</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B7</f>
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">C7</f>
+        <v>0.51</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <f aca="false">D7</f>
+        <v>0.51</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <f aca="false">E7</f>
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <f aca="false">F7</f>
+        <v>0.506666666666667</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">B8</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">C8</f>
+        <v>1.25</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <f aca="false">D8</f>
+        <v>1.23</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <f aca="false">E8</f>
+        <v>1.22</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <f aca="false">F8</f>
+        <v>1.23333333333333</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">C9</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <f aca="false">D9</f>
+        <v>1.98</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <f aca="false">E9</f>
+        <v>1.97</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <f aca="false">F9</f>
+        <v>1.98333333333333</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <f aca="false">C10</f>
+        <v>2.73</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <f aca="false">D10</f>
+        <v>2.69</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <f aca="false">E10</f>
+        <v>2.68</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <f aca="false">F10</f>
+        <v>2.7</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <f aca="false">C11</f>
+        <v>3.48</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <f aca="false">D11</f>
+        <v>3.43</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <f aca="false">E11</f>
+        <v>3.41</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <f aca="false">F11</f>
+        <v>3.44</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>60</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <f aca="false">C12</f>
+        <v>4.89</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <f aca="false">D12</f>
+        <v>4.12</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <f aca="false">E12</f>
+        <v>4.11</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <f aca="false">F12</f>
+        <v>4.37333333333333</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>70</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <f aca="false">C13</f>
+        <v>4.91</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <f aca="false">D13</f>
+        <v>4.84</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <f aca="false">E13</f>
+        <v>4.83</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <f aca="false">F13</f>
+        <v>4.86</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>80</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <f aca="false">C14</f>
+        <v>5.6</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <f aca="false">D14</f>
+        <v>5.53</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <f aca="false">E14</f>
+        <v>5.51</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <f aca="false">F14</f>
+        <v>5.54666666666667</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <f aca="false">B15</f>
+        <v>90</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <f aca="false">C15</f>
+        <v>6.32</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <f aca="false">D15</f>
+        <v>6.24</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <f aca="false">E15</f>
+        <v>6.22</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <f aca="false">F15</f>
+        <v>6.26</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <f aca="false">B16</f>
+        <v>100</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <f aca="false">C16</f>
+        <v>7.02</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <f aca="false">D16</f>
+        <v>6.91</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <f aca="false">E16</f>
+        <v>6.89</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <f aca="false">F16</f>
+        <v>6.94</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/current vs brightness/current vs brightness.xlsx
+++ b/experiments/current vs brightness/current vs brightness.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="17">
   <si>
     <t xml:space="preserve">One neopixel</t>
   </si>
@@ -71,14 +71,18 @@
   <si>
     <t xml:space="preserve">Avg</t>
   </si>
+  <si>
+    <t xml:space="preserve">std dev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -163,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,6 +181,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,8 +305,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.492936867806069"/>
-          <c:y val="0.0325407844498438"/>
+          <c:x val="0.492918928086838"/>
+          <c:y val="0.0326303913911308"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -773,11 +781,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="10730508"/>
-        <c:axId val="81139842"/>
+        <c:axId val="60367875"/>
+        <c:axId val="48420614"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10730508"/>
+        <c:axId val="60367875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,14 +821,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81139842"/>
+        <c:crossAx val="48420614"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81139842"/>
+        <c:axId val="48420614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10730508"/>
+        <c:crossAx val="60367875"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1139,11 +1147,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73317141"/>
-        <c:axId val="33985265"/>
+        <c:axId val="2029201"/>
+        <c:axId val="25587612"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73317141"/>
+        <c:axId val="2029201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,12 +1197,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33985265"/>
+        <c:crossAx val="25587612"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33985265"/>
+        <c:axId val="25587612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1248,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73317141"/>
+        <c:crossAx val="2029201"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1459,11 +1467,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96177610"/>
-        <c:axId val="60799651"/>
+        <c:axId val="57531438"/>
+        <c:axId val="51772005"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96177610"/>
+        <c:axId val="57531438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,12 +1517,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60799651"/>
+        <c:crossAx val="51772005"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60799651"/>
+        <c:axId val="51772005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1568,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96177610"/>
+        <c:crossAx val="57531438"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1599,9 +1607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1609,8 +1617,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7020000" y="3732840"/>
-        <a:ext cx="8256600" cy="4148280"/>
+        <a:off x="7248600" y="3732840"/>
+        <a:ext cx="8489880" cy="4147920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1634,9 +1642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1644,8 +1652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3781080" y="547560"/>
-        <a:ext cx="4704480" cy="2742840"/>
+        <a:off x="3876480" y="547560"/>
+        <a:ext cx="4837320" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1669,9 +1677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1679,8 +1687,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7604280" y="10440"/>
-        <a:ext cx="4685760" cy="2733120"/>
+        <a:off x="7794720" y="10440"/>
+        <a:ext cx="4818960" cy="2732760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1701,16 +1709,16 @@
   <dimension ref="B1:R17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="B21:K31 I4"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="1" sqref="B21:M31 I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.08372093023256"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.06511627906977"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.18604651162791"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,14 +2414,14 @@
   <dimension ref="B6:E27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="B21:K31 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="B21:M31 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,15 +2670,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:K31"/>
+  <dimension ref="B4:M31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21:K31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,8 +2697,11 @@
       <c r="F5" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
@@ -2707,8 +2718,12 @@
         <f aca="false">AVERAGE(C6:E6)</f>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="4" t="n">
+        <f aca="false">STDEV(C6:E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>10</v>
       </c>
@@ -2725,8 +2740,12 @@
         <f aca="false">AVERAGE(C7:E7)</f>
         <v>0.506666666666667</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="4" t="n">
+        <f aca="false">STDEV(C7:E7)</f>
+        <v>0.00577350269189626</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
@@ -2743,8 +2762,12 @@
         <f aca="false">AVERAGE(C8:E8)</f>
         <v>1.23333333333333</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="4" t="n">
+        <f aca="false">STDEV(C8:E8)</f>
+        <v>0.0152752523165195</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>30</v>
       </c>
@@ -2761,8 +2784,12 @@
         <f aca="false">AVERAGE(C9:E9)</f>
         <v>1.98333333333333</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="4" t="n">
+        <f aca="false">STDEV(C9:E9)</f>
+        <v>0.0152752523165195</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>40</v>
       </c>
@@ -2779,8 +2806,12 @@
         <f aca="false">AVERAGE(C10:E10)</f>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="4" t="n">
+        <f aca="false">STDEV(C10:E10)</f>
+        <v>0.0264575131106458</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>50</v>
       </c>
@@ -2797,8 +2828,12 @@
         <f aca="false">AVERAGE(C11:E11)</f>
         <v>3.44</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="4" t="n">
+        <f aca="false">STDEV(C11:E11)</f>
+        <v>0.0360555127546398</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
         <v>60</v>
       </c>
@@ -2815,8 +2850,12 @@
         <f aca="false">AVERAGE(C12:E12)</f>
         <v>4.37333333333333</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="4" t="n">
+        <f aca="false">STDEV(C12:E12)</f>
+        <v>0.447474394053261</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
         <v>70</v>
       </c>
@@ -2833,8 +2872,12 @@
         <f aca="false">AVERAGE(C13:E13)</f>
         <v>4.86</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="4" t="n">
+        <f aca="false">STDEV(C13:E13)</f>
+        <v>0.0435889894354068</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
         <v>80</v>
       </c>
@@ -2851,8 +2894,12 @@
         <f aca="false">AVERAGE(C14:E14)</f>
         <v>5.54666666666667</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="4" t="n">
+        <f aca="false">STDEV(C14:E14)</f>
+        <v>0.0472581562625259</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
         <v>90</v>
       </c>
@@ -2869,8 +2916,12 @@
         <f aca="false">AVERAGE(C15:E15)</f>
         <v>6.26</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="4" t="n">
+        <f aca="false">STDEV(C15:E15)</f>
+        <v>0.052915026221292</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
         <v>100</v>
       </c>
@@ -2886,6 +2937,10 @@
       <c r="F16" s="3" t="n">
         <f aca="false">AVERAGE(C16:E16)</f>
         <v>6.94</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <f aca="false">STDEV(C16:E16)</f>
+        <v>0.0699999999999998</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,6 +2977,13 @@
         <v>0.12</v>
       </c>
       <c r="K21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <f aca="false">G6</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2959,6 +3021,13 @@
         <v>0.506666666666667</v>
       </c>
       <c r="K22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <f aca="false">G7</f>
+        <v>0.00577350269189626</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2996,6 +3065,13 @@
         <v>1.23333333333333</v>
       </c>
       <c r="K23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <f aca="false">G8</f>
+        <v>0.0152752523165195</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3033,6 +3109,13 @@
         <v>1.98333333333333</v>
       </c>
       <c r="K24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <f aca="false">G9</f>
+        <v>0.0152752523165195</v>
+      </c>
+      <c r="M24" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3070,6 +3153,13 @@
         <v>2.7</v>
       </c>
       <c r="K25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <f aca="false">G10</f>
+        <v>0.0264575131106458</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3107,6 +3197,13 @@
         <v>3.44</v>
       </c>
       <c r="K26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <f aca="false">G11</f>
+        <v>0.0360555127546398</v>
+      </c>
+      <c r="M26" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3144,6 +3241,13 @@
         <v>4.37333333333333</v>
       </c>
       <c r="K27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <f aca="false">G12</f>
+        <v>0.447474394053261</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3181,6 +3285,13 @@
         <v>4.86</v>
       </c>
       <c r="K28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <f aca="false">G13</f>
+        <v>0.0435889894354068</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3218,6 +3329,13 @@
         <v>5.54666666666667</v>
       </c>
       <c r="K29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <f aca="false">G14</f>
+        <v>0.0472581562625259</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3255,6 +3373,13 @@
         <v>6.26</v>
       </c>
       <c r="K30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <f aca="false">G15</f>
+        <v>0.052915026221292</v>
+      </c>
+      <c r="M30" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3292,6 +3417,13 @@
         <v>6.94</v>
       </c>
       <c r="K31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <f aca="false">G16</f>
+        <v>0.0699999999999998</v>
+      </c>
+      <c r="M31" s="0" t="s">
         <v>10</v>
       </c>
     </row>
